--- a/GL110_Script_ViewJournals_21B.xlsx
+++ b/GL110_Script_ViewJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F98038-25F7-4CEA-93FC-C203279B62AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC1E54-FF53-475F-882D-83305F631520}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ViewJournals" sheetId="30" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="266">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -18547,7 +18547,7 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -18801,9 +18801,6 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B8" s="6" t="s">
         <v>1</v>
       </c>
@@ -18837,9 +18834,6 @@
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
@@ -18869,9 +18863,6 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
@@ -18905,9 +18896,6 @@
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B11" s="6" t="s">
         <v>1</v>
       </c>
@@ -18934,9 +18922,6 @@
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -18970,9 +18955,6 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="B13" s="6" t="s">
         <v>1</v>
       </c>

--- a/GL110_Script_ViewJournals_21B.xlsx
+++ b/GL110_Script_ViewJournals_21B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFC1E54-FF53-475F-882D-83305F631520}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BB226-AD83-4680-89BF-09B5876C7253}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="267">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -551,9 +549,6 @@
   </si>
   <si>
     <t>Explicit wait for UsernameClick</t>
-  </si>
-  <si>
-    <t>SetDelay</t>
   </si>
   <si>
     <t>Wait</t>
@@ -834,6 +829,12 @@
   </si>
   <si>
     <t>//*[text()='Save']</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>WaitForDuration</t>
   </si>
 </sst>
 </file>
@@ -18609,7 +18610,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18638,7 +18639,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>23</v>
@@ -18673,7 +18674,7 @@
         <v>39</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18705,7 +18706,7 @@
         <v>40</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18738,7 +18739,7 @@
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18746,7 +18747,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>48</v>
@@ -18767,11 +18768,11 @@
         <v>38</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18779,7 +18780,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>60</v>
@@ -18797,7 +18798,7 @@
         <v>37</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18805,13 +18806,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -18820,17 +18821,17 @@
         <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18838,13 +18839,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -18853,13 +18854,13 @@
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -18867,7 +18868,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>58</v>
@@ -18882,17 +18883,17 @@
         <v>45</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -18900,7 +18901,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>60</v>
@@ -18915,10 +18916,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -18926,10 +18927,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -18947,11 +18948,11 @@
         <v>38</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -18959,7 +18960,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>63</v>
@@ -18977,7 +18978,7 @@
         <v>65</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -18988,7 +18989,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>67</v>
@@ -19009,10 +19010,10 @@
         <v>38</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -19023,7 +19024,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>68</v>
@@ -19041,7 +19042,7 @@
         <v>47</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19052,7 +19053,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>69</v>
@@ -19073,10 +19074,10 @@
         <v>38</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -19087,7 +19088,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>84</v>
@@ -19108,10 +19109,10 @@
         <v>38</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -19122,7 +19123,7 @@
         <v>101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>85</v>
@@ -19140,7 +19141,7 @@
         <v>81</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -19151,7 +19152,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>84</v>
@@ -19166,16 +19167,16 @@
         <v>45</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -19186,31 +19187,31 @@
         <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="H20" s="10"/>
       <c r="I20" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -19221,7 +19222,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>133</v>
@@ -19242,10 +19243,10 @@
         <v>38</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -19256,7 +19257,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>139</v>
@@ -19271,16 +19272,16 @@
         <v>45</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -19291,7 +19292,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>142</v>
@@ -19303,19 +19304,19 @@
         <v>24</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19326,7 +19327,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>134</v>
@@ -19338,13 +19339,13 @@
         <v>24</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -19355,7 +19356,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>145</v>
@@ -19376,10 +19377,10 @@
         <v>38</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -19390,7 +19391,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>149</v>
@@ -19411,10 +19412,10 @@
         <v>38</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -19425,7 +19426,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>139</v>
@@ -19437,13 +19438,13 @@
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -19454,7 +19455,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>150</v>
@@ -19475,10 +19476,10 @@
         <v>38</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -19489,7 +19490,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>142</v>
@@ -19501,13 +19502,13 @@
         <v>24</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>141</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -19518,7 +19519,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>142</v>
@@ -19530,13 +19531,13 @@
         <v>24</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -19547,7 +19548,7 @@
         <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>150</v>
@@ -19562,16 +19563,16 @@
         <v>41</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -19582,7 +19583,7 @@
         <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>52</v>
@@ -19594,7 +19595,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>51</v>
@@ -19605,7 +19606,7 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19616,7 +19617,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>89</v>
@@ -19637,10 +19638,10 @@
         <v>38</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19651,7 +19652,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>93</v>
@@ -19672,10 +19673,10 @@
         <v>38</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19686,7 +19687,7 @@
         <v>101</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>92</v>
@@ -19704,7 +19705,7 @@
         <v>54</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19715,31 +19716,31 @@
         <v>101</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="H36" s="10"/>
       <c r="I36" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -19747,7 +19748,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>160</v>
@@ -19768,10 +19769,10 @@
         <v>38</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -19779,7 +19780,7 @@
         <v>101</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>161</v>
@@ -19791,7 +19792,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H38" s="6" t="s">
         <v>153</v>
@@ -19803,7 +19804,7 @@
         <v>153</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -19811,7 +19812,7 @@
         <v>101</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>164</v>
@@ -19823,7 +19824,7 @@
         <v>24</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H39" s="6" t="s">
         <v>154</v>
@@ -19835,7 +19836,7 @@
         <v>154</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -19843,7 +19844,7 @@
         <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>165</v>
@@ -19855,7 +19856,7 @@
         <v>24</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H40" s="6" t="s">
         <v>155</v>
@@ -19864,10 +19865,10 @@
         <v>38</v>
       </c>
       <c r="J40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M40" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -19875,7 +19876,7 @@
         <v>101</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>168</v>
@@ -19887,7 +19888,7 @@
         <v>24</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>156</v>
@@ -19896,10 +19897,10 @@
         <v>38</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -19907,7 +19908,7 @@
         <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>100</v>
@@ -19928,10 +19929,10 @@
         <v>38</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -19939,7 +19940,7 @@
         <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>169</v>
@@ -19957,7 +19958,7 @@
         <v>57</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -19968,31 +19969,31 @@
         <v>101</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>172</v>
+        <v>266</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
       <c r="M44" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -20003,7 +20004,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>171</v>
@@ -20018,17 +20019,17 @@
         <v>45</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L45" s="11"/>
       <c r="M45" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -20039,13 +20040,13 @@
         <v>101</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -20054,13 +20055,13 @@
         <v>22</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="L46" s="11"/>
       <c r="M46" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -20068,7 +20069,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>171</v>
@@ -20089,10 +20090,10 @@
         <v>38</v>
       </c>
       <c r="J47" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -20100,7 +20101,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>102</v>
@@ -20125,7 +20126,7 @@
       </c>
       <c r="K48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -20133,7 +20134,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>106</v>
@@ -20154,11 +20155,11 @@
         <v>38</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="2:13">
@@ -20166,7 +20167,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>109</v>
@@ -20191,7 +20192,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="2:13">
@@ -20199,7 +20200,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -20220,11 +20221,11 @@
         <v>38</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -20232,7 +20233,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>114</v>
@@ -20253,11 +20254,11 @@
         <v>38</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -20265,7 +20266,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>117</v>
@@ -20290,7 +20291,7 @@
       </c>
       <c r="K53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="2:13">
@@ -20298,7 +20299,7 @@
         <v>101</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>119</v>
@@ -21083,7 +21084,6 @@
       <c r="K206" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N54" xr:uid="{CE568EEF-F3F0-4947-9AAB-0C6CB2BE601D}"/>
   <phoneticPr fontId="32" type="noConversion"/>
   <conditionalFormatting sqref="H174:I174">
     <cfRule type="duplicateValues" dxfId="104" priority="93"/>
@@ -21556,7 +21556,7 @@
         <v>75</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>24</v>
@@ -21570,7 +21570,7 @@
         <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
@@ -21738,7 +21738,7 @@
         <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>24</v>
@@ -21752,7 +21752,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>24</v>
@@ -21766,7 +21766,7 @@
         <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>24</v>
@@ -21780,7 +21780,7 @@
         <v>75</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>24</v>
@@ -21794,7 +21794,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>24</v>
@@ -21808,7 +21808,7 @@
         <v>75</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>24</v>
@@ -21822,7 +21822,7 @@
         <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>24</v>
@@ -21830,13 +21830,13 @@
     </row>
     <row r="41" spans="1:4" ht="13">
       <c r="A41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>24</v>
@@ -21844,13 +21844,13 @@
     </row>
     <row r="42" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A42" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>24</v>
@@ -21858,13 +21858,13 @@
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A43" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>24</v>
@@ -21872,13 +21872,13 @@
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A44" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>24</v>
@@ -21886,13 +21886,13 @@
     </row>
     <row r="45" spans="1:4" ht="13">
       <c r="A45" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>24</v>
@@ -21900,13 +21900,13 @@
     </row>
     <row r="46" spans="1:4" ht="13">
       <c r="A46" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>24</v>
@@ -21914,13 +21914,13 @@
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="13">
       <c r="A47" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>24</v>
@@ -21928,13 +21928,13 @@
     </row>
     <row r="48" spans="1:4" ht="13">
       <c r="A48" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>24</v>

--- a/GL110_Script_ViewJournals_21B.xlsx
+++ b/GL110_Script_ViewJournals_21B.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJ4862\Desktop\GL Batch1 Scripts with Navigation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05BB226-AD83-4680-89BF-09B5876C7253}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41E3EB-AAD0-40F3-80F5-83BF8458F530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ViewJournals" sheetId="30" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="275">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -554,9 +554,6 @@
     <t>Wait</t>
   </si>
   <si>
-    <t>VerifyAttribute</t>
-  </si>
-  <si>
     <t>AccountingPRd</t>
   </si>
   <si>
@@ -603,12 +600,6 @@
   </si>
   <si>
     <t>//a[@id='pt1:_UIScmil1u']</t>
-  </si>
-  <si>
-    <t>DebitAmtVJ</t>
-  </si>
-  <si>
-    <t>AccountVJ</t>
   </si>
   <si>
     <t xml:space="preserve">Yes
@@ -835,6 +826,39 @@
   </si>
   <si>
     <t>WaitForDuration</t>
+  </si>
+  <si>
+    <t>JournalBatchAcctPeriodValidation</t>
+  </si>
+  <si>
+    <t>JournalCategoryValidation</t>
+  </si>
+  <si>
+    <t>AccountValidation</t>
+  </si>
+  <si>
+    <t>DebitAmountValidation</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'showLessPeriodNameCLOV:sis1:is1::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'CategoryNameInputSearch1::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'LineAppTable:_ATp:t3:0:accountCS2::content')]</t>
+  </si>
+  <si>
+    <t>//*[contains(@id,'LineAppTable:_ATp:t3:0:EnteredDr::content')]</t>
+  </si>
+  <si>
+    <t>VerifyText</t>
+  </si>
+  <si>
+    <t>Enter on Accounting Period</t>
+  </si>
+  <si>
+    <t>Entered Accounting Period</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1068,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="50">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1297,18 +1321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9286,12 +9298,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -9299,12 +9311,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="45" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="48" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9316,8 +9322,17 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="7828">
@@ -18548,21 +18563,21 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="17.7265625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="21.453125" style="6" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.1796875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="33.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="35.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="20.453125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="21.7265625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.08984375" style="6" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="12.7265625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.26953125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.26953125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="23.26953125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="13.26953125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="13.81640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -18610,7 +18625,7 @@
         <v>0</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -18639,7 +18654,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>23</v>
@@ -18674,7 +18689,7 @@
         <v>39</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -18706,7 +18721,7 @@
         <v>40</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -18739,7 +18754,7 @@
       </c>
       <c r="K5" s="6"/>
       <c r="M5" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -18747,7 +18762,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>48</v>
@@ -18767,12 +18782,12 @@
       <c r="I6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>252</v>
+      <c r="J6" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="K6" s="6"/>
       <c r="M6" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -18780,7 +18795,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>60</v>
@@ -18798,7 +18813,7 @@
         <v>37</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -18806,13 +18821,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>24</v>
@@ -18821,17 +18836,17 @@
         <v>45</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>253</v>
+      <c r="J8" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="K8" s="6"/>
       <c r="M8" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -18839,13 +18854,13 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -18854,13 +18869,12 @@
         <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -18868,7 +18882,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>58</v>
@@ -18883,17 +18897,17 @@
         <v>45</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>252</v>
+      <c r="J10" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="K10" s="6"/>
       <c r="M10" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -18901,7 +18915,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>60</v>
@@ -18916,10 +18930,10 @@
         <v>22</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -18927,10 +18941,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>44</v>
@@ -18947,12 +18961,12 @@
       <c r="I12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>252</v>
+      <c r="J12" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="K12" s="6"/>
       <c r="M12" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -18960,7 +18974,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>63</v>
@@ -18978,7 +18992,7 @@
         <v>65</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -18989,7 +19003,7 @@
         <v>101</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>67</v>
@@ -19009,11 +19023,11 @@
       <c r="I14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>252</v>
+      <c r="J14" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -19024,7 +19038,7 @@
         <v>101</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>68</v>
@@ -19042,7 +19056,7 @@
         <v>47</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -19053,7 +19067,7 @@
         <v>101</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>69</v>
@@ -19073,11 +19087,11 @@
       <c r="I16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>252</v>
+      <c r="J16" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -19088,7 +19102,7 @@
         <v>101</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>84</v>
@@ -19108,11 +19122,11 @@
       <c r="I17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>252</v>
+      <c r="J17" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -19123,7 +19137,7 @@
         <v>101</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>85</v>
@@ -19141,7 +19155,7 @@
         <v>81</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -19152,7 +19166,7 @@
         <v>101</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>84</v>
@@ -19167,16 +19181,16 @@
         <v>45</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>252</v>
+      <c r="J19" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -19187,31 +19201,31 @@
         <v>101</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="8"/>
       <c r="I20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
+      <c r="J20" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -19222,7 +19236,7 @@
         <v>101</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>133</v>
@@ -19242,11 +19256,11 @@
       <c r="I21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J21" s="8" t="s">
-        <v>252</v>
+      <c r="J21" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -19257,13 +19271,13 @@
         <v>101</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -19272,16 +19286,16 @@
         <v>45</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="9" t="s">
-        <v>253</v>
+      <c r="J22" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -19292,7 +19306,7 @@
         <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>142</v>
@@ -19304,19 +19318,19 @@
         <v>24</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I23" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="7" t="s">
-        <v>246</v>
+      <c r="J23" s="6" t="s">
+        <v>243</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -19327,7 +19341,7 @@
         <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>134</v>
@@ -19339,13 +19353,13 @@
         <v>24</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>130</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -19356,7 +19370,7 @@
         <v>101</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>145</v>
@@ -19376,11 +19390,11 @@
       <c r="I25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="9" t="s">
-        <v>253</v>
+      <c r="J25" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -19391,7 +19405,7 @@
         <v>101</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>149</v>
@@ -19411,11 +19425,11 @@
       <c r="I26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J26" s="9" t="s">
-        <v>253</v>
+      <c r="J26" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -19426,7 +19440,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>139</v>
@@ -19438,13 +19452,13 @@
         <v>24</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -19455,7 +19469,7 @@
         <v>101</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>150</v>
@@ -19476,10 +19490,10 @@
         <v>38</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -19490,7 +19504,7 @@
         <v>101</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>142</v>
@@ -19502,13 +19516,13 @@
         <v>24</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H29" s="6" t="s">
         <v>141</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -19519,7 +19533,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>142</v>
@@ -19531,13 +19545,13 @@
         <v>24</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -19548,13 +19562,13 @@
         <v>101</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>24</v>
@@ -19563,16 +19577,16 @@
         <v>41</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -19583,7 +19597,7 @@
         <v>101</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>52</v>
@@ -19595,7 +19609,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>51</v>
@@ -19603,10 +19617,9 @@
       <c r="I32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="M32" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -19617,7 +19630,7 @@
         <v>101</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>89</v>
@@ -19637,11 +19650,11 @@
       <c r="I33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="8" t="s">
-        <v>252</v>
+      <c r="J33" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -19652,7 +19665,7 @@
         <v>101</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>93</v>
@@ -19672,11 +19685,11 @@
       <c r="I34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>252</v>
+      <c r="J34" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -19687,7 +19700,7 @@
         <v>101</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>92</v>
@@ -19705,7 +19718,7 @@
         <v>54</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -19716,39 +19729,42 @@
         <v>101</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D36" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H36" s="10"/>
+      <c r="F36" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J36" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
+      <c r="J36" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="37" spans="1:13">
+      <c r="A37" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B37" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>160</v>
@@ -19763,24 +19779,27 @@
         <v>45</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>252</v>
+      <c r="J37" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:13">
+      <c r="A38" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B38" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>161</v>
@@ -19792,27 +19811,30 @@
         <v>24</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J38" s="6" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:13">
+      <c r="A39" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B39" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>164</v>
@@ -19824,27 +19846,30 @@
         <v>24</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J39" s="6" t="s">
-        <v>154</v>
+        <v>265</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:13">
+      <c r="A40" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B40" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>165</v>
@@ -19856,27 +19881,30 @@
         <v>24</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J40" s="6" t="s">
-        <v>191</v>
+        <v>266</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:13">
+      <c r="A41" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B41" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>168</v>
@@ -19888,27 +19916,30 @@
         <v>24</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="J41" s="6" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42" spans="1:13">
+      <c r="A42" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>100</v>
@@ -19928,19 +19959,22 @@
       <c r="I42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>252</v>
+      <c r="J42" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:13">
+      <c r="A43" s="6" t="s">
+        <v>148</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>101</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>169</v>
@@ -19958,7 +19992,7 @@
         <v>57</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -19969,31 +20003,31 @@
         <v>101</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D44" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="F44" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="F44" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="J44" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -20004,7 +20038,7 @@
         <v>101</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>171</v>
@@ -20019,17 +20053,17 @@
         <v>45</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="L45" s="11"/>
+      <c r="J45" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="L45" s="9"/>
       <c r="M45" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -20040,13 +20074,13 @@
         <v>101</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>24</v>
@@ -20055,13 +20089,12 @@
         <v>22</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="L46" s="11"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -20069,7 +20102,7 @@
         <v>101</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>171</v>
@@ -20089,11 +20122,11 @@
       <c r="I47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>252</v>
+      <c r="J47" s="6" t="s">
+        <v>249</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -20101,7 +20134,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>102</v>
@@ -20126,7 +20159,7 @@
       </c>
       <c r="K48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:13">
@@ -20134,7 +20167,7 @@
         <v>101</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>106</v>
@@ -20154,12 +20187,12 @@
       <c r="I49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J49" s="9" t="s">
-        <v>253</v>
+      <c r="J49" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="K49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="2:13">
@@ -20167,7 +20200,7 @@
         <v>101</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>109</v>
@@ -20192,7 +20225,7 @@
       </c>
       <c r="K50" s="6"/>
       <c r="M50" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="2:13">
@@ -20200,7 +20233,7 @@
         <v>101</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>111</v>
@@ -20220,12 +20253,12 @@
       <c r="I51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>253</v>
+      <c r="J51" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="K51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -20233,7 +20266,7 @@
         <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D52" s="6" t="s">
         <v>114</v>
@@ -20253,12 +20286,12 @@
       <c r="I52" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>253</v>
+      <c r="J52" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="K52" s="6"/>
       <c r="M52" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -20266,7 +20299,7 @@
         <v>101</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>117</v>
@@ -20291,7 +20324,7 @@
       </c>
       <c r="K53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="2:13">
@@ -20299,7 +20332,7 @@
         <v>101</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D54" s="6" t="s">
         <v>119</v>
@@ -20320,767 +20353,615 @@
         <v>23</v>
       </c>
       <c r="K54" s="6"/>
-      <c r="M54" s="12"/>
+      <c r="M54" s="10"/>
     </row>
     <row r="55" spans="2:13">
       <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="2:13">
       <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
       <c r="K56" s="6"/>
     </row>
     <row r="57" spans="2:13">
       <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
       <c r="K57" s="6"/>
     </row>
     <row r="58" spans="2:13">
       <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
       <c r="K58" s="6"/>
     </row>
     <row r="59" spans="2:13">
       <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
       <c r="K59" s="6"/>
     </row>
     <row r="60" spans="2:13">
       <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
       <c r="K60" s="6"/>
     </row>
     <row r="61" spans="2:13">
       <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
       <c r="K61" s="6"/>
     </row>
     <row r="62" spans="2:13">
       <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
       <c r="K62" s="6"/>
     </row>
     <row r="63" spans="2:13">
       <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
       <c r="K63" s="6"/>
     </row>
     <row r="64" spans="2:13">
       <c r="I64" s="6"/>
-      <c r="J64" s="13"/>
       <c r="K64" s="6"/>
     </row>
     <row r="65" spans="9:11">
       <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
       <c r="K65" s="6"/>
     </row>
     <row r="66" spans="9:11">
       <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
       <c r="K66" s="6"/>
     </row>
     <row r="67" spans="9:11">
       <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
       <c r="K67" s="6"/>
     </row>
     <row r="68" spans="9:11">
       <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
       <c r="K68" s="6"/>
     </row>
     <row r="69" spans="9:11">
       <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
       <c r="K69" s="6"/>
     </row>
     <row r="70" spans="9:11">
       <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
       <c r="K70" s="6"/>
     </row>
     <row r="71" spans="9:11">
       <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
       <c r="K71" s="6"/>
     </row>
     <row r="72" spans="9:11">
       <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
       <c r="K72" s="6"/>
     </row>
     <row r="73" spans="9:11">
       <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
       <c r="K73" s="6"/>
     </row>
     <row r="74" spans="9:11">
       <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
       <c r="K74" s="6"/>
     </row>
     <row r="75" spans="9:11">
       <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
       <c r="K75" s="6"/>
     </row>
     <row r="76" spans="9:11">
       <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
       <c r="K76" s="6"/>
     </row>
     <row r="77" spans="9:11">
       <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
       <c r="K77" s="6"/>
     </row>
     <row r="78" spans="9:11">
       <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
     </row>
     <row r="79" spans="9:11">
       <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
       <c r="K79" s="6"/>
     </row>
     <row r="80" spans="9:11">
       <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
       <c r="K80" s="6"/>
     </row>
     <row r="81" spans="9:11">
       <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
       <c r="K81" s="6"/>
     </row>
     <row r="82" spans="9:11">
       <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
       <c r="K82" s="6"/>
     </row>
     <row r="83" spans="9:11">
       <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
       <c r="K83" s="6"/>
     </row>
     <row r="84" spans="9:11">
       <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
       <c r="K84" s="6"/>
     </row>
     <row r="85" spans="9:11">
       <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
       <c r="K85" s="6"/>
     </row>
     <row r="86" spans="9:11">
       <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
       <c r="K86" s="6"/>
     </row>
     <row r="87" spans="9:11">
       <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
       <c r="K87" s="6"/>
     </row>
     <row r="88" spans="9:11">
       <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
       <c r="K88" s="6"/>
     </row>
     <row r="89" spans="9:11">
       <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
       <c r="K89" s="6"/>
     </row>
     <row r="90" spans="9:11">
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
       <c r="K90" s="6"/>
     </row>
     <row r="91" spans="9:11">
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
       <c r="K91" s="6"/>
     </row>
     <row r="92" spans="9:11">
       <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
       <c r="K92" s="6"/>
     </row>
     <row r="93" spans="9:11">
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
       <c r="K93" s="6"/>
     </row>
     <row r="94" spans="9:11">
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
       <c r="K94" s="6"/>
     </row>
     <row r="95" spans="9:11">
       <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
       <c r="K95" s="6"/>
     </row>
     <row r="96" spans="9:11">
       <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
       <c r="K96" s="6"/>
     </row>
     <row r="97" spans="9:11">
       <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
       <c r="K97" s="6"/>
     </row>
     <row r="98" spans="9:11">
       <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
       <c r="K98" s="6"/>
     </row>
     <row r="99" spans="9:11">
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
       <c r="K99" s="6"/>
     </row>
     <row r="100" spans="9:11">
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
     <row r="101" spans="9:11">
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
     <row r="102" spans="9:11">
       <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
       <c r="K102" s="6"/>
     </row>
     <row r="103" spans="9:11">
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
       <c r="K103" s="6"/>
     </row>
     <row r="104" spans="9:11">
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
       <c r="K104" s="6"/>
     </row>
     <row r="105" spans="9:11">
       <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
       <c r="K105" s="6"/>
     </row>
     <row r="106" spans="9:11">
       <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
       <c r="K106" s="6"/>
     </row>
     <row r="107" spans="9:11">
       <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
       <c r="K107" s="6"/>
     </row>
     <row r="108" spans="9:11">
       <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
       <c r="K108" s="6"/>
     </row>
     <row r="109" spans="9:11">
       <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
       <c r="K109" s="6"/>
     </row>
     <row r="110" spans="9:11">
       <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
       <c r="K110" s="6"/>
     </row>
     <row r="111" spans="9:11">
       <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
       <c r="K111" s="6"/>
     </row>
     <row r="112" spans="9:11">
       <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
       <c r="K112" s="6"/>
     </row>
     <row r="113" spans="9:11">
       <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
       <c r="K113" s="6"/>
     </row>
     <row r="114" spans="9:11">
       <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
       <c r="K114" s="6"/>
     </row>
     <row r="115" spans="9:11">
       <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
       <c r="K115" s="6"/>
     </row>
     <row r="116" spans="9:11">
       <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
       <c r="K116" s="6"/>
     </row>
     <row r="117" spans="9:11">
       <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
       <c r="K117" s="6"/>
     </row>
     <row r="118" spans="9:11">
       <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
       <c r="K118" s="6"/>
     </row>
     <row r="119" spans="9:11">
       <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
       <c r="K119" s="6"/>
     </row>
     <row r="120" spans="9:11">
       <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
       <c r="K120" s="6"/>
     </row>
     <row r="121" spans="9:11">
       <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
       <c r="K121" s="6"/>
     </row>
     <row r="122" spans="9:11">
       <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
       <c r="K122" s="6"/>
     </row>
     <row r="123" spans="9:11">
       <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
       <c r="K123" s="6"/>
     </row>
     <row r="124" spans="9:11">
       <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
       <c r="K124" s="6"/>
     </row>
     <row r="125" spans="9:11">
       <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
       <c r="K125" s="6"/>
     </row>
     <row r="126" spans="9:11">
       <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
       <c r="K126" s="6"/>
     </row>
     <row r="127" spans="9:11">
       <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
       <c r="K127" s="6"/>
     </row>
     <row r="128" spans="9:11">
       <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
       <c r="K128" s="6"/>
     </row>
     <row r="129" spans="9:11">
       <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
       <c r="K129" s="6"/>
     </row>
     <row r="130" spans="9:11">
       <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
       <c r="K130" s="6"/>
     </row>
     <row r="131" spans="9:11">
       <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
       <c r="K131" s="6"/>
     </row>
     <row r="132" spans="9:11">
       <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
       <c r="K132" s="6"/>
     </row>
     <row r="133" spans="9:11">
       <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
       <c r="K133" s="6"/>
     </row>
     <row r="134" spans="9:11">
       <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
       <c r="K134" s="6"/>
     </row>
     <row r="135" spans="9:11">
       <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
       <c r="K135" s="6"/>
     </row>
     <row r="136" spans="9:11">
       <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
       <c r="K136" s="6"/>
     </row>
     <row r="137" spans="9:11">
       <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
       <c r="K137" s="6"/>
     </row>
     <row r="138" spans="9:11">
       <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
       <c r="K138" s="6"/>
     </row>
     <row r="139" spans="9:11">
       <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
       <c r="K139" s="6"/>
     </row>
     <row r="140" spans="9:11">
       <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
       <c r="K140" s="6"/>
     </row>
     <row r="141" spans="9:11">
       <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
       <c r="K141" s="6"/>
     </row>
     <row r="142" spans="9:11">
       <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
       <c r="K142" s="6"/>
     </row>
     <row r="143" spans="9:11">
       <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
       <c r="K143" s="6"/>
     </row>
     <row r="144" spans="9:11">
       <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
       <c r="K144" s="6"/>
     </row>
     <row r="145" spans="9:11">
       <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
       <c r="K145" s="6"/>
     </row>
     <row r="146" spans="9:11">
       <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
       <c r="K146" s="6"/>
     </row>
     <row r="147" spans="9:11">
       <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
       <c r="K147" s="6"/>
     </row>
     <row r="148" spans="9:11">
       <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
       <c r="K148" s="6"/>
     </row>
     <row r="149" spans="9:11">
       <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
       <c r="K149" s="6"/>
     </row>
     <row r="150" spans="9:11">
       <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
       <c r="K150" s="6"/>
     </row>
     <row r="151" spans="9:11">
       <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
       <c r="K151" s="6"/>
     </row>
     <row r="152" spans="9:11">
       <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
       <c r="K152" s="6"/>
     </row>
     <row r="153" spans="9:11">
       <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
       <c r="K153" s="6"/>
     </row>
     <row r="154" spans="9:11">
       <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
       <c r="K154" s="6"/>
     </row>
     <row r="155" spans="9:11">
       <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
       <c r="K155" s="6"/>
     </row>
     <row r="156" spans="9:11">
       <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
       <c r="K156" s="6"/>
     </row>
     <row r="157" spans="9:11">
       <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
       <c r="K157" s="6"/>
     </row>
     <row r="158" spans="9:11">
       <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
       <c r="K158" s="6"/>
     </row>
     <row r="159" spans="9:11">
       <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
       <c r="K159" s="6"/>
     </row>
     <row r="160" spans="9:11">
       <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
       <c r="K160" s="6"/>
     </row>
     <row r="161" spans="9:11">
       <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
       <c r="K161" s="6"/>
     </row>
     <row r="162" spans="9:11">
       <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
       <c r="K162" s="6"/>
     </row>
     <row r="163" spans="9:11">
       <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
       <c r="K163" s="6"/>
     </row>
     <row r="164" spans="9:11">
       <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
       <c r="K164" s="6"/>
     </row>
     <row r="165" spans="9:11">
       <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
       <c r="K165" s="6"/>
     </row>
     <row r="166" spans="9:11">
       <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
       <c r="K166" s="6"/>
     </row>
     <row r="167" spans="9:11">
       <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
       <c r="K167" s="6"/>
     </row>
     <row r="168" spans="9:11">
       <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
       <c r="K168" s="6"/>
     </row>
     <row r="169" spans="9:11">
       <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
       <c r="K169" s="6"/>
     </row>
     <row r="170" spans="9:11">
       <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
       <c r="K170" s="6"/>
     </row>
     <row r="171" spans="9:11">
       <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
       <c r="K171" s="6"/>
     </row>
     <row r="172" spans="9:11">
       <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
       <c r="K172" s="6"/>
     </row>
     <row r="173" spans="9:11">
       <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
       <c r="K173" s="6"/>
     </row>
     <row r="174" spans="9:11">
       <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
       <c r="K174" s="6"/>
     </row>
     <row r="175" spans="9:11">
       <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
       <c r="K175" s="6"/>
     </row>
     <row r="176" spans="9:11">
       <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
       <c r="K176" s="6"/>
     </row>
     <row r="177" spans="9:11">
       <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
       <c r="K177" s="6"/>
     </row>
     <row r="178" spans="9:11">
       <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
       <c r="K178" s="6"/>
     </row>
     <row r="179" spans="9:11">
       <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
       <c r="K179" s="6"/>
     </row>
     <row r="180" spans="9:11">
       <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
       <c r="K180" s="6"/>
     </row>
     <row r="181" spans="9:11">
       <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
       <c r="K181" s="6"/>
     </row>
     <row r="182" spans="9:11">
       <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
       <c r="K182" s="6"/>
     </row>
     <row r="183" spans="9:11">
       <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
       <c r="K183" s="6"/>
     </row>
     <row r="184" spans="9:11">
       <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
       <c r="K184" s="6"/>
     </row>
     <row r="185" spans="9:11">
       <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
       <c r="K185" s="6"/>
     </row>
     <row r="186" spans="9:11">
       <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
       <c r="K186" s="6"/>
     </row>
     <row r="187" spans="9:11">
       <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
       <c r="K187" s="6"/>
     </row>
     <row r="188" spans="9:11">
       <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
       <c r="K188" s="6"/>
     </row>
     <row r="189" spans="9:11">
       <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
       <c r="K189" s="6"/>
     </row>
     <row r="190" spans="9:11">
       <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
       <c r="K190" s="6"/>
     </row>
     <row r="191" spans="9:11">
       <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
       <c r="K191" s="6"/>
     </row>
     <row r="192" spans="9:11">
       <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
       <c r="K192" s="6"/>
     </row>
     <row r="193" spans="2:11">
       <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
       <c r="K193" s="6"/>
     </row>
     <row r="194" spans="2:11">
       <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
       <c r="K194" s="6"/>
     </row>
     <row r="195" spans="2:11">
       <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
       <c r="K195" s="6"/>
     </row>
     <row r="196" spans="2:11">
       <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
       <c r="K196" s="6"/>
     </row>
     <row r="197" spans="2:11">
       <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
       <c r="K197" s="6"/>
     </row>
     <row r="198" spans="2:11">
       <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
       <c r="K198" s="6"/>
     </row>
     <row r="199" spans="2:11">
       <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
       <c r="K199" s="6"/>
     </row>
     <row r="200" spans="2:11">
       <c r="I200" s="6"/>
-      <c r="J200" s="6"/>
       <c r="K200" s="6"/>
     </row>
     <row r="201" spans="2:11">
       <c r="I201" s="6"/>
-      <c r="J201" s="6"/>
       <c r="K201" s="6"/>
     </row>
     <row r="202" spans="2:11">
       <c r="I202" s="6"/>
-      <c r="J202" s="6"/>
       <c r="K202" s="6"/>
     </row>
     <row r="203" spans="2:11">
       <c r="I203" s="6"/>
-      <c r="J203" s="6"/>
       <c r="K203" s="6"/>
     </row>
     <row r="204" spans="2:11">
       <c r="I204" s="6"/>
-      <c r="J204" s="6"/>
       <c r="K204" s="6"/>
     </row>
     <row r="205" spans="2:11">
-      <c r="B205" s="12"/>
+      <c r="B205" s="10"/>
       <c r="I205" s="6"/>
-      <c r="J205" s="6"/>
       <c r="K205" s="6"/>
     </row>
     <row r="206" spans="2:11">
       <c r="I206" s="6"/>
-      <c r="J206" s="6"/>
       <c r="K206" s="6"/>
     </row>
   </sheetData>
@@ -21253,15 +21134,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet28"/>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.08984375" style="14" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="58.26953125" style="2" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="14.1796875" style="2" customWidth="1" collapsed="1"/>
@@ -21269,7 +21150,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="22" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -21283,7 +21164,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -21297,7 +21178,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="13">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -21311,7 +21192,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="13">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -21325,7 +21206,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="13">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -21339,7 +21220,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -21353,7 +21234,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="13">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -21367,7 +21248,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="13">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>66</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -21381,7 +21262,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="13">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -21395,7 +21276,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="13">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -21409,7 +21290,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="13">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="12" t="s">
         <v>81</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -21423,7 +21304,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="13">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="12" t="s">
         <v>141</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -21437,7 +21318,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -21451,7 +21332,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="13">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="12" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -21465,7 +21346,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="13">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -21479,7 +21360,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="13">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -21493,7 +21374,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="13">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="12" t="s">
         <v>95</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -21507,7 +21388,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="13">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -21521,7 +21402,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="13">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -21535,7 +21416,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="13">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -21549,35 +21430,35 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="13">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="13">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="13">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="12" t="s">
         <v>105</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -21591,7 +21472,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="13">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -21605,7 +21486,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="13">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -21619,7 +21500,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="13">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="12" t="s">
         <v>116</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -21633,7 +21514,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="13">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -21647,7 +21528,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="13">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="12" t="s">
         <v>127</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -21661,7 +21542,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="13">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="12" t="s">
         <v>130</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -21675,7 +21556,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="13">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="12" t="s">
         <v>132</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -21689,7 +21570,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="13">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="12" t="s">
         <v>137</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -21703,7 +21584,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="13">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="12" t="s">
         <v>144</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -21717,7 +21598,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="13">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -21731,212 +21612,268 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="13">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="12" t="s">
         <v>153</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="13">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="13">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="12" t="s">
         <v>155</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="13">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="12" t="s">
         <v>156</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="13">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="12" t="s">
         <v>157</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="13">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="13">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="12" t="s">
         <v>159</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="13">
-      <c r="A41" s="5" t="s">
-        <v>174</v>
+      <c r="A41" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="3" customFormat="1" ht="13">
-      <c r="A42" s="5" t="s">
-        <v>178</v>
+      <c r="A42" s="12" t="s">
+        <v>177</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="3" customFormat="1" ht="13">
-      <c r="A43" s="5" t="s">
-        <v>181</v>
+      <c r="A43" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:4" s="3" customFormat="1" ht="13">
-      <c r="A44" s="5" t="s">
-        <v>182</v>
+      <c r="A44" s="12" t="s">
+        <v>181</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="13">
-      <c r="A45" s="5" t="s">
-        <v>198</v>
+      <c r="A45" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="13">
-      <c r="A46" s="5" t="s">
-        <v>245</v>
+      <c r="A46" s="12" t="s">
+        <v>242</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="3" customFormat="1" ht="13">
-      <c r="A47" s="5" t="s">
-        <v>256</v>
+      <c r="A47" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="13">
-      <c r="A48" s="5" t="s">
-        <v>263</v>
+      <c r="A48" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="13">
+      <c r="A49" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="B49" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="13">
+      <c r="A50" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="13">
+      <c r="A51" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="13">
+      <c r="A52" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -21944,10 +21881,10 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D13:D42">
     <sortCondition ref="D13:D42"/>
   </sortState>
-  <conditionalFormatting sqref="A79:A1048576 A27:A33 A1 A41 A48:A77">
+  <conditionalFormatting sqref="A79:A1048576 A27:A33 A1 A41 A48 A53:A77">
     <cfRule type="duplicateValues" dxfId="45" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A79:A1048576 A27:A33 A1 A41 A48:A77">
+  <conditionalFormatting sqref="A79:A1048576 A27:A33 A1 A41 A48 A53:A77">
     <cfRule type="duplicateValues" dxfId="44" priority="66"/>
     <cfRule type="duplicateValues" dxfId="43" priority="67"/>
   </conditionalFormatting>

--- a/GL110_Script_ViewJournals_21B.xlsx
+++ b/GL110_Script_ViewJournals_21B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PriyankJain\Desktop\23June-GL Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B41E3EB-AAD0-40F3-80F5-83BF8458F530}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758CC885-5595-4D0C-AD7D-FC1599376D0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="831" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="273">
   <si>
     <t>SCREENSHOT</t>
   </si>
@@ -853,12 +853,6 @@
   </si>
   <si>
     <t>VerifyText</t>
-  </si>
-  <si>
-    <t>Enter on Accounting Period</t>
-  </si>
-  <si>
-    <t>Entered Accounting Period</t>
   </si>
 </sst>
 </file>
@@ -18563,7 +18557,7 @@
   <dimension ref="A1:N206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13"/>
@@ -19274,10 +19268,10 @@
         <v>213</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>24</v>
@@ -19565,10 +19559,10 @@
         <v>222</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>273</v>
+        <v>150</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>24</v>
